--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.89</v>
+        <v>2.21</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>01/09/2023 13:29</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3.38</v>
+        <v>2.38</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:02</t>
+          <t>02/09/2023 16:23</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>01/09/2023 13:29</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:02</t>
+          <t>02/09/2023 08:56</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.24</v>
+        <v>3.27</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>01/09/2023 13:29</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.28</v>
+        <v>3.23</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:02</t>
+          <t>02/09/2023 16:23</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/penafiel-academico-viseu/WSEPdxxT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leiria-avs/vZ3ajzFd/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.21</v>
+        <v>1.89</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>01/09/2023 13:29</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.38</v>
+        <v>3.38</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:23</t>
+          <t>02/09/2023 16:02</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>01/09/2023 13:29</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 08:56</t>
+          <t>02/09/2023 16:02</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.27</v>
+        <v>4.24</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>01/09/2023 13:29</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.23</v>
+        <v>2.28</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:23</t>
+          <t>02/09/2023 16:02</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leiria-avs/vZ3ajzFd/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/penafiel-academico-viseu/WSEPdxxT/</t>
         </is>
       </c>
     </row>
@@ -5514,6 +5514,98 @@
       <c r="V55" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/torreense-cf-os-belenenses/Ucm1N21E/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45205.79166666666</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>04/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>04/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>04/10/2023 13:27</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/santa-clara-academico-viseu/MgBU5zWt/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5609,6 +5609,190 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45206.5</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>5</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Oliveirense</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:53</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-oliveirense/4x3o2hV5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Tondela</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Leixoes</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:10</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:40</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:40</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/tondela-leixoes/veebajFO/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5793,6 +5793,98 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45206.79166666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Vilaverdense</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/pacos-ferreira-vilaverdense-fc/zcFY4fom/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5885,6 +5885,282 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45207.5</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:51</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:53</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:51</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45207.5</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Leiria</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Os Belenenses</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Maritimo</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:13</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:13</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:13</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/cf-os-belenenses-maritimo/Qiif0WaI/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.38</v>
+        <v>3.48</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:53</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.48</v>
+        <v>3.38</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:53</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
         </is>
       </c>
     </row>
@@ -6158,6 +6158,98 @@
       <c r="V62" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/cf-os-belenenses-maritimo/Qiif0WaI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45207.79166666666</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Benfica B</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-feirense/rT1k1CpC/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Vilaverdense</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>13/08/2023 11:59</t>
+          <t>13/08/2023 11:52</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.33</v>
+        <v>3.88</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>13/08/2023 11:55</t>
+          <t>13/08/2023 11:52</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.79</v>
+        <v>4.53</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.16</v>
+        <v>4.8</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>13/08/2023 11:59</t>
+          <t>13/08/2023 11:52</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-tondela/MejJgCPJ/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/academico-viseu-vilaverdense-fc/Yeoap8n6/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,14 +949,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Vilaverdense</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 11:52</t>
+          <t>13/08/2023 11:59</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.88</v>
+        <v>3.33</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 11:52</t>
+          <t>13/08/2023 11:55</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.53</v>
+        <v>4.79</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>4.8</v>
+        <v>3.16</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 11:52</t>
+          <t>13/08/2023 11:59</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/academico-viseu-vilaverdense-fc/Yeoap8n6/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-tondela/MejJgCPJ/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.21</v>
+        <v>1.89</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>01/09/2023 13:29</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.38</v>
+        <v>3.38</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:23</t>
+          <t>02/09/2023 16:02</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>01/09/2023 13:29</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 08:56</t>
+          <t>02/09/2023 16:02</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.27</v>
+        <v>4.24</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>01/09/2023 13:29</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.23</v>
+        <v>2.28</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:23</t>
+          <t>02/09/2023 16:02</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leiria-avs/vZ3ajzFd/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/penafiel-academico-viseu/WSEPdxxT/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.89</v>
+        <v>2.21</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>01/09/2023 13:29</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3.38</v>
+        <v>2.38</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:02</t>
+          <t>02/09/2023 16:23</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>01/09/2023 13:29</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:02</t>
+          <t>02/09/2023 08:56</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.24</v>
+        <v>3.27</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>01/09/2023 13:29</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.28</v>
+        <v>3.23</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:02</t>
+          <t>02/09/2023 16:23</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/penafiel-academico-viseu/WSEPdxxT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leiria-avs/vZ3ajzFd/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.48</v>
+        <v>3.38</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:53</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.38</v>
+        <v>3.48</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:53</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
         </is>
       </c>
     </row>
@@ -6250,6 +6250,98 @@
       <c r="V63" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-feirense/rT1k1CpC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45208.88541666666</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>09/10/2023 21:11</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>09/10/2023 21:11</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>04/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>09/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/avs-penafiel/dC3s3YFa/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Vilaverdense</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>13/08/2023 11:52</t>
+          <t>13/08/2023 11:59</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.88</v>
+        <v>3.33</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>13/08/2023 11:52</t>
+          <t>13/08/2023 11:55</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.53</v>
+        <v>4.79</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.8</v>
+        <v>3.16</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>13/08/2023 11:52</t>
+          <t>13/08/2023 11:59</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/academico-viseu-vilaverdense-fc/Yeoap8n6/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-tondela/MejJgCPJ/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,14 +949,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Vilaverdense</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 11:59</t>
+          <t>13/08/2023 11:52</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.33</v>
+        <v>3.88</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 11:55</t>
+          <t>13/08/2023 11:52</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.79</v>
+        <v>4.53</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.16</v>
+        <v>4.8</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 11:59</t>
+          <t>13/08/2023 11:52</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-tondela/MejJgCPJ/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/academico-viseu-vilaverdense-fc/Yeoap8n6/</t>
         </is>
       </c>
     </row>
@@ -6342,6 +6342,834 @@
       <c r="V64" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/avs-penafiel/dC3s3YFa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45226.79166666666</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>26/10/2023 12:31</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>3</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>26/10/2023 12:31</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>26/10/2023 12:31</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/penafiel-mafra/veHTEVEB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45227.5</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:51</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:53</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:53</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/torreense-pacos-ferreira/pdOKGipa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Leixoes</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Os Belenenses</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:27</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:27</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:18</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leixoes-cf-os-belenenses/jZOGHXUh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45227.6875</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Maritimo</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>2</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Tondela</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:24</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:25</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:24</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/maritimo-tondela/CrQCIDFn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45228.5</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:51</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:51</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/academico-viseu-nacional/nLKyD9qO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45228.625</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/feirense-avs/IoGXDkUH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45228.6875</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Benfica B</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:23</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:23</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:23</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/santa-clara-benfica/f7V7Jg0t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45228.79166666666</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Oliveirense</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Leiria</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>4</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-leiria/QBJuCTbU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45229.79166666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Vilaverdense</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>26/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/vilaverdense-fc-fc-porto/dWROFBa5/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Maritimo</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>2</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Vilaverdense</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
       <c r="J39" t="n">
-        <v>1.75</v>
+        <v>2.76</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>12/09/2023 12:12</t>
+          <t>13/09/2023 21:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.82</v>
+        <v>2.49</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16/09/2023 11:53</t>
+          <t>16/09/2023 11:00</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.71</v>
+        <v>3.22</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>12/09/2023 12:12</t>
+          <t>13/09/2023 21:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.69</v>
+        <v>3.34</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16/09/2023 11:53</t>
+          <t>16/09/2023 10:30</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.89</v>
+        <v>2.58</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>12/09/2023 12:12</t>
+          <t>13/09/2023 21:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.66</v>
+        <v>3.01</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 11:53</t>
+          <t>16/09/2023 11:00</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/avs-vilaverdense-fc/rVCSkOuq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-maritimo/tORXnMP1/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Vilaverdense</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Maritimo</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
       <c r="J40" t="n">
-        <v>2.76</v>
+        <v>1.75</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>13/09/2023 21:12</t>
+          <t>12/09/2023 12:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.49</v>
+        <v>1.82</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16/09/2023 11:00</t>
+          <t>16/09/2023 11:53</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.22</v>
+        <v>3.71</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>13/09/2023 21:12</t>
+          <t>12/09/2023 12:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.34</v>
+        <v>3.69</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16/09/2023 10:30</t>
+          <t>16/09/2023 11:53</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.58</v>
+        <v>4.89</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>13/09/2023 21:12</t>
+          <t>12/09/2023 12:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.01</v>
+        <v>4.66</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>16/09/2023 11:00</t>
+          <t>16/09/2023 11:53</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-maritimo/tORXnMP1/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/avs-vilaverdense-fc/rVCSkOuq/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,466 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/vilaverdense-fc-fc-porto/dWROFBa5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45234.5</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45234.5</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Leixoes</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:48</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:51</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:51</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45234.6875</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Os Belenenses</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Vilaverdense</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:21</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:21</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:21</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/cf-os-belenenses-vilaverdense-fc/r3IbSlqB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45234.79166666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Benfica B</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:53</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:53</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-penafiel/xjmbUAEb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45234.79166666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:52</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-santa-clara/xQH2R8bH/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:48</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.57</v>
+        <v>3.73</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.78</v>
+        <v>3.55</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.87</v>
+        <v>3.8</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.41</v>
+        <v>4.21</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:58</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Leixoes</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
       <c r="J75" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:48</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.73</v>
+        <v>3.57</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.55</v>
+        <v>3.78</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.8</v>
+        <v>3.87</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.21</v>
+        <v>4.41</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.91</v>
+        <v>2.98</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.26</v>
+        <v>2.81</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.67</v>
+        <v>3.27</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.59</v>
+        <v>3.23</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:52</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.01</v>
+        <v>2.39</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:52</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-penafiel/xjmbUAEb/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-santa-clara/xQH2R8bH/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,63 +7573,155 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:53</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:53</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-penafiel/xjmbUAEb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45235.5</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Oliveirense</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>1</v>
       </c>
-      <c r="J78" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K78" t="inlineStr">
+      <c r="J79" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>01/11/2023 16:12</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>04/11/2023 18:58</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="O78" t="inlineStr">
+      <c r="L79" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:57</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="O79" t="inlineStr">
         <is>
           <t>01/11/2023 16:12</t>
         </is>
       </c>
-      <c r="P78" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>04/11/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="S78" t="inlineStr">
+      <c r="P79" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:57</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="S79" t="inlineStr">
         <is>
           <t>01/11/2023 16:12</t>
         </is>
       </c>
-      <c r="T78" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>04/11/2023 18:52</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-santa-clara/xQH2R8bH/</t>
+      <c r="T79" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:57</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/avs-oliveirense/4xkjWWqn/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.28</v>
+        <v>2.17</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.42</v>
+        <v>2.7</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>27/08/2023 11:40</t>
+          <t>27/08/2023 11:51</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.34</v>
+        <v>3.44</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>27/08/2023 10:00</t>
+          <t>27/08/2023 11:51</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.03</v>
+        <v>2.74</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>27/08/2023 11:40</t>
+          <t>27/08/2023 11:51</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-penafiel/h4QIwcVj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-leiria/z1LGbb7G/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.7</v>
+        <v>2.42</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>27/08/2023 11:51</t>
+          <t>27/08/2023 11:40</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.44</v>
+        <v>3.34</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>27/08/2023 11:51</t>
+          <t>27/08/2023 10:00</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.74</v>
+        <v>3.03</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>27/08/2023 11:51</t>
+          <t>27/08/2023 11:40</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-leiria/z1LGbb7G/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-penafiel/h4QIwcVj/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Vilaverdense</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Maritimo</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
       <c r="J39" t="n">
-        <v>2.76</v>
+        <v>1.75</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>13/09/2023 21:12</t>
+          <t>12/09/2023 12:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.49</v>
+        <v>1.82</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16/09/2023 11:00</t>
+          <t>16/09/2023 11:53</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.22</v>
+        <v>3.71</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>13/09/2023 21:12</t>
+          <t>12/09/2023 12:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.34</v>
+        <v>3.69</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16/09/2023 10:30</t>
+          <t>16/09/2023 11:53</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>2.58</v>
+        <v>4.89</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>13/09/2023 21:12</t>
+          <t>12/09/2023 12:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.01</v>
+        <v>4.66</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 11:00</t>
+          <t>16/09/2023 11:53</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-maritimo/tORXnMP1/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/avs-vilaverdense-fc/rVCSkOuq/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Maritimo</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>2</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Vilaverdense</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
       <c r="J40" t="n">
-        <v>1.75</v>
+        <v>2.76</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>12/09/2023 12:12</t>
+          <t>13/09/2023 21:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.82</v>
+        <v>2.49</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16/09/2023 11:53</t>
+          <t>16/09/2023 11:00</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.71</v>
+        <v>3.22</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>12/09/2023 12:12</t>
+          <t>13/09/2023 21:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.69</v>
+        <v>3.34</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16/09/2023 11:53</t>
+          <t>16/09/2023 10:30</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>4.89</v>
+        <v>2.58</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>12/09/2023 12:12</t>
+          <t>13/09/2023 21:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.66</v>
+        <v>3.01</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>16/09/2023 11:53</t>
+          <t>16/09/2023 11:00</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/avs-vilaverdense-fc/rVCSkOuq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-maritimo/tORXnMP1/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.38</v>
+        <v>3.48</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:53</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.48</v>
+        <v>3.38</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:53</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Leixoes</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
       <c r="J74" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:48</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.73</v>
+        <v>3.57</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.55</v>
+        <v>3.78</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.8</v>
+        <v>3.87</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.21</v>
+        <v>4.41</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:58</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:48</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.57</v>
+        <v>3.73</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.78</v>
+        <v>3.55</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.87</v>
+        <v>3.8</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.41</v>
+        <v>4.21</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:58</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.98</v>
+        <v>1.91</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.81</v>
+        <v>2.26</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:58</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.27</v>
+        <v>3.67</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.23</v>
+        <v>3.59</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:52</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.39</v>
+        <v>4.01</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:52</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-santa-clara/xQH2R8bH/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-penafiel/xjmbUAEb/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,63 +7573,63 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.91</v>
+        <v>2.98</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.26</v>
+        <v>2.81</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:58</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.67</v>
+        <v>3.27</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.59</v>
+        <v>3.23</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:52</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.01</v>
+        <v>2.39</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:52</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-penafiel/xjmbUAEb/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-santa-clara/xQH2R8bH/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,190 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/avs-oliveirense/4xkjWWqn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45235.625</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Leiria</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>4</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Maritimo</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leiria-maritimo/4CJfTUT4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45235.79166666666</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Tondela</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:52</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:55</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:52</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/tondela-torreense/balfVjah/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.48</v>
+        <v>3.38</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:53</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.38</v>
+        <v>3.48</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:53</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
         </is>
       </c>
     </row>
@@ -7906,6 +7906,98 @@
       <c r="V81" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/tondela-torreense/balfVjah/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45236.79166666666</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>01/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/pacos-ferreira-academico-viseu/jZpnXCUu/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.91</v>
+        <v>2.98</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.26</v>
+        <v>2.81</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.67</v>
+        <v>3.27</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.59</v>
+        <v>3.23</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:52</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.01</v>
+        <v>2.39</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:52</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-penafiel/xjmbUAEb/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-santa-clara/xQH2R8bH/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,63 +7573,63 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.98</v>
+        <v>1.91</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.81</v>
+        <v>2.26</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:58</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.27</v>
+        <v>3.67</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.23</v>
+        <v>3.59</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:52</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.39</v>
+        <v>4.01</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:52</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-santa-clara/xQH2R8bH/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-penafiel/xjmbUAEb/</t>
         </is>
       </c>
     </row>
@@ -7998,6 +7998,98 @@
       <c r="V82" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/pacos-ferreira-academico-viseu/jZpnXCUu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45240.79166666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Os Belenenses</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>07/11/2023 22:17</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:23</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>07/11/2023 22:17</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:23</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>07/11/2023 22:17</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:23</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/feirense-cf-os-belenenses/OGjLqjEo/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.7</v>
+        <v>2.42</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>27/08/2023 11:51</t>
+          <t>27/08/2023 11:40</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.44</v>
+        <v>3.34</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>27/08/2023 11:51</t>
+          <t>27/08/2023 10:00</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.74</v>
+        <v>3.03</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>27/08/2023 11:51</t>
+          <t>27/08/2023 11:40</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-leiria/z1LGbb7G/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-penafiel/h4QIwcVj/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.28</v>
+        <v>2.17</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.42</v>
+        <v>2.7</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>27/08/2023 11:40</t>
+          <t>27/08/2023 11:51</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.34</v>
+        <v>3.44</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>27/08/2023 10:00</t>
+          <t>27/08/2023 11:51</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.03</v>
+        <v>2.74</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>27/08/2023 11:40</t>
+          <t>27/08/2023 11:51</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-penafiel/h4QIwcVj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-leiria/z1LGbb7G/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.38</v>
+        <v>3.48</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:53</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.48</v>
+        <v>3.38</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:53</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:48</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.57</v>
+        <v>3.73</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.78</v>
+        <v>3.55</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.87</v>
+        <v>3.8</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.41</v>
+        <v>4.21</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:58</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Leixoes</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
       <c r="J75" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:48</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.73</v>
+        <v>3.57</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.55</v>
+        <v>3.78</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.8</v>
+        <v>3.87</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.21</v>
+        <v>4.41</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.98</v>
+        <v>1.91</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.81</v>
+        <v>2.26</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:58</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.27</v>
+        <v>3.67</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.23</v>
+        <v>3.59</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:52</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.39</v>
+        <v>4.01</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:52</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-santa-clara/xQH2R8bH/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-penafiel/xjmbUAEb/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,63 +7573,63 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.91</v>
+        <v>2.98</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.26</v>
+        <v>2.81</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:58</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.67</v>
+        <v>3.27</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.59</v>
+        <v>3.23</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:52</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.01</v>
+        <v>2.39</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:52</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-penafiel/xjmbUAEb/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-santa-clara/xQH2R8bH/</t>
         </is>
       </c>
     </row>
@@ -8090,6 +8090,190 @@
       <c r="V83" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/feirense-cf-os-belenenses/OGjLqjEo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45241.5</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Leiria</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:52</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-leiria/Qozkw6cT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45241.625</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>11/11/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/penafiel-fc-porto/27kPrATi/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.48</v>
+        <v>3.38</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:53</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.38</v>
+        <v>3.48</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:53</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
         </is>
       </c>
     </row>
@@ -8274,6 +8274,190 @@
       <c r="V85" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/penafiel-fc-porto/27kPrATi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45241.6875</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:22</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:22</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:22</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/santa-clara-avs/z1cwL6yo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45241.79166666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Oliveirense</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:18</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:18</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:18</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-pacos-ferreira/d6rYtlb4/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Leixoes</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
       <c r="J74" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:48</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.73</v>
+        <v>3.57</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.55</v>
+        <v>3.78</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.8</v>
+        <v>3.87</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.21</v>
+        <v>4.41</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:58</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:48</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.57</v>
+        <v>3.73</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.78</v>
+        <v>3.55</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.87</v>
+        <v>3.8</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.41</v>
+        <v>4.21</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:58</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
         </is>
       </c>
     </row>
@@ -8458,6 +8458,190 @@
       <c r="V87" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-pacos-ferreira/d6rYtlb4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45242.5</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:50</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:50</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:50</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/torreense-mafra/jTsxt8DA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45242.5</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Vilaverdense</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Tondela</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:57</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:57</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:57</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/vilaverdense-fc-tondela/UJttuSSG/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8645,6 +8645,190 @@
         </is>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45242.6875</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Leixoes</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Maritimo</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:20</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:20</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>08/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:20</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leixoes-maritimo/pWvUsUrb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45242.79166666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Benfica B</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:35</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:35</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:35</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/academico-viseu-benfica/neyovnrN/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:48</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.57</v>
+        <v>3.73</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.78</v>
+        <v>3.55</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.87</v>
+        <v>3.8</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.41</v>
+        <v>4.21</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:58</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Leixoes</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
       <c r="J75" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:48</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.73</v>
+        <v>3.57</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.55</v>
+        <v>3.78</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.8</v>
+        <v>3.87</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.21</v>
+        <v>4.41</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.91</v>
+        <v>2.98</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.26</v>
+        <v>2.81</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.67</v>
+        <v>3.27</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.59</v>
+        <v>3.23</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:52</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.01</v>
+        <v>2.39</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:52</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-penafiel/xjmbUAEb/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-santa-clara/xQH2R8bH/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,63 +7573,63 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.98</v>
+        <v>1.91</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.81</v>
+        <v>2.26</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:58</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.27</v>
+        <v>3.67</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.23</v>
+        <v>3.59</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:52</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.39</v>
+        <v>4.01</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:52</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-santa-clara/xQH2R8bH/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-penafiel/xjmbUAEb/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,650 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/academico-viseu-benfica/neyovnrN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45248.5</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Vilaverdense</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:50</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:50</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:50</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-vilaverdense-fc/bZ43dTci/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45248.625</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/pacos-ferreira-santa-clara/IsKmyJRr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45248.6875</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Tondela</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>18/11/2023 16:20</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>18/11/2023 16:20</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>18/11/2023 16:20</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/tondela-feirense/C4Jizwsk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45248.79166666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Leiria</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Leixoes</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:50</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:50</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:50</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leiria-leixoes/Ot2FgRsA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45249.5</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>14/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:51</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/avs-nacional/xQ37emDc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45249.625</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Os Belenenses</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>19/11/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>19/11/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>19/11/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/cf-os-belenenses-penafiel/65iKhocG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45249.6875</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Maritimo</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>13/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:23</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>13/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:23</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>13/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:23</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/maritimo-torreense/rRMGYP5p/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.28</v>
+        <v>2.17</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.42</v>
+        <v>2.7</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>27/08/2023 11:40</t>
+          <t>27/08/2023 11:51</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.34</v>
+        <v>3.44</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>27/08/2023 10:00</t>
+          <t>27/08/2023 11:51</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.03</v>
+        <v>2.74</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>27/08/2023 11:40</t>
+          <t>27/08/2023 11:51</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-penafiel/h4QIwcVj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-leiria/z1LGbb7G/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.7</v>
+        <v>2.42</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>27/08/2023 11:51</t>
+          <t>27/08/2023 11:40</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.44</v>
+        <v>3.34</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>27/08/2023 11:51</t>
+          <t>27/08/2023 10:00</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.74</v>
+        <v>3.03</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>27/08/2023 11:51</t>
+          <t>27/08/2023 11:40</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-leiria/z1LGbb7G/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-penafiel/h4QIwcVj/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Leixoes</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
       <c r="J74" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:48</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.73</v>
+        <v>3.57</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.55</v>
+        <v>3.78</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.8</v>
+        <v>3.87</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.21</v>
+        <v>4.41</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:58</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:48</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.57</v>
+        <v>3.73</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.78</v>
+        <v>3.55</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.87</v>
+        <v>3.8</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.41</v>
+        <v>4.21</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:58</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.98</v>
+        <v>1.91</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.81</v>
+        <v>2.26</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:58</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.27</v>
+        <v>3.67</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.23</v>
+        <v>3.59</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:52</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.39</v>
+        <v>4.01</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:52</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-santa-clara/xQH2R8bH/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-penafiel/xjmbUAEb/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,63 +7573,63 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.91</v>
+        <v>2.98</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.26</v>
+        <v>2.81</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:58</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.67</v>
+        <v>3.27</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.59</v>
+        <v>3.23</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:52</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>4.01</v>
+        <v>2.39</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:52</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-penafiel/xjmbUAEb/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-santa-clara/xQH2R8bH/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Vilaverdense</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>2.12</v>
+        <v>2.68</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.57</v>
+        <v>3.73</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>12/11/2023 11:50</t>
+          <t>12/11/2023 11:57</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.18</v>
+        <v>3.49</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>12/11/2023 11:50</t>
+          <t>12/11/2023 11:57</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.58</v>
+        <v>2.58</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.04</v>
+        <v>2.09</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>12/11/2023 11:50</t>
+          <t>12/11/2023 11:57</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/torreense-mafra/jTsxt8DA/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/vilaverdense-fc-tondela/UJttuSSG/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Vilaverdense</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.68</v>
+        <v>2.12</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.73</v>
+        <v>2.57</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>12/11/2023 11:57</t>
+          <t>12/11/2023 11:50</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.49</v>
+        <v>3.18</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>12/11/2023 11:57</t>
+          <t>12/11/2023 11:50</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.58</v>
+        <v>3.58</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.09</v>
+        <v>3.04</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>12/11/2023 11:57</t>
+          <t>12/11/2023 11:50</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/vilaverdense-fc-tondela/UJttuSSG/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/torreense-mafra/jTsxt8DA/</t>
         </is>
       </c>
     </row>
@@ -9470,6 +9470,190 @@
       <c r="V98" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/maritimo-torreense/rRMGYP5p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45255.5</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>3</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>17/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:53</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>17/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:51</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>17/11/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:53</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-academico-viseu/dUQKXqLj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45255.79166666666</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Benfica B</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Oliveirense</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>19/11/2023 14:48</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>19/11/2023 14:48</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>19/11/2023 14:48</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-oliveirense/pj3Bf7S3/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,15 +2528,15 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.7</v>
+        <v>2.42</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>27/08/2023 11:51</t>
+          <t>27/08/2023 11:40</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.44</v>
+        <v>3.34</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>27/08/2023 11:51</t>
+          <t>27/08/2023 10:00</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>3.43</v>
+        <v>3.29</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.74</v>
+        <v>3.03</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>27/08/2023 11:51</t>
+          <t>27/08/2023 11:40</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-leiria/z1LGbb7G/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-penafiel/h4QIwcVj/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.28</v>
+        <v>2.17</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.42</v>
+        <v>2.7</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>27/08/2023 11:40</t>
+          <t>27/08/2023 11:51</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.34</v>
+        <v>3.44</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>27/08/2023 10:00</t>
+          <t>27/08/2023 11:51</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.29</v>
+        <v>3.43</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.03</v>
+        <v>2.74</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>27/08/2023 11:40</t>
+          <t>27/08/2023 11:51</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-penafiel/h4QIwcVj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-leiria/z1LGbb7G/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:48</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.57</v>
+        <v>3.73</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.78</v>
+        <v>3.55</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.87</v>
+        <v>3.8</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.41</v>
+        <v>4.21</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:58</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Leixoes</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
       <c r="J75" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:48</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.73</v>
+        <v>3.57</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.55</v>
+        <v>3.78</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.8</v>
+        <v>3.87</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.21</v>
+        <v>4.41</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
         </is>
       </c>
     </row>
@@ -9654,6 +9654,190 @@
       <c r="V100" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-oliveirense/pj3Bf7S3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45261.6875</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Vilaverdense</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Leiria</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>24/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>01/12/2023 14:37</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>24/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:02</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>24/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>01/12/2023 14:37</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/vilaverdense-fc-leiria/CIbQlxdr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45261.79166666666</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Os Belenenses</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/academico-viseu-cf-os-belenenses/j9cUmdBl/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9841,6 +9841,98 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45262.5</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Oliveirense</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>3</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:00</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:00</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:00</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-fc-porto/0QandK38/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Leixoes</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
       <c r="J74" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:48</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.73</v>
+        <v>3.57</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.55</v>
+        <v>3.78</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.8</v>
+        <v>3.87</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.21</v>
+        <v>4.41</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:58</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:48</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.57</v>
+        <v>3.73</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.78</v>
+        <v>3.55</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.87</v>
+        <v>3.8</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.41</v>
+        <v>4.21</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:58</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Vilaverdense</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>2.68</v>
+        <v>2.12</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>3.73</v>
+        <v>2.57</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>12/11/2023 11:57</t>
+          <t>12/11/2023 11:50</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.49</v>
+        <v>3.18</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>12/11/2023 11:57</t>
+          <t>12/11/2023 11:50</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.58</v>
+        <v>3.58</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.09</v>
+        <v>3.04</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>12/11/2023 11:57</t>
+          <t>12/11/2023 11:50</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/vilaverdense-fc-tondela/UJttuSSG/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/torreense-mafra/jTsxt8DA/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Vilaverdense</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>2.12</v>
+        <v>2.68</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>2.57</v>
+        <v>3.73</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>12/11/2023 11:50</t>
+          <t>12/11/2023 11:57</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.18</v>
+        <v>3.49</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>12/11/2023 11:50</t>
+          <t>12/11/2023 11:57</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.58</v>
+        <v>2.58</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>3.04</v>
+        <v>2.09</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>12/11/2023 11:50</t>
+          <t>12/11/2023 11:57</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/torreense-mafra/jTsxt8DA/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/vilaverdense-fc-tondela/UJttuSSG/</t>
         </is>
       </c>
     </row>
@@ -9930,6 +9930,98 @@
       <c r="V103" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-fc-porto/0QandK38/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45262.625</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>27/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>27/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>27/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>02/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-pacos-ferreira/tz8ffbYK/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.89</v>
+        <v>2.21</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>01/09/2023 13:29</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3.38</v>
+        <v>2.38</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:02</t>
+          <t>02/09/2023 16:23</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>01/09/2023 13:29</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:02</t>
+          <t>02/09/2023 08:56</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.24</v>
+        <v>3.27</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>01/09/2023 13:29</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.28</v>
+        <v>3.23</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:02</t>
+          <t>02/09/2023 16:23</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/penafiel-academico-viseu/WSEPdxxT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leiria-avs/vZ3ajzFd/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.21</v>
+        <v>1.89</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>01/09/2023 13:29</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.38</v>
+        <v>3.38</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:23</t>
+          <t>02/09/2023 16:02</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>01/09/2023 13:29</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 08:56</t>
+          <t>02/09/2023 16:02</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.27</v>
+        <v>4.24</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>01/09/2023 13:29</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.23</v>
+        <v>2.28</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:23</t>
+          <t>02/09/2023 16:02</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leiria-avs/vZ3ajzFd/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/penafiel-academico-viseu/WSEPdxxT/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.38</v>
+        <v>3.48</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:53</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.48</v>
+        <v>3.38</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:53</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
         </is>
       </c>
     </row>
@@ -10022,6 +10022,2122 @@
       <c r="V104" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-pacos-ferreira/tz8ffbYK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45262.89583333334</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Benfica B</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:43</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:27</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:43</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:25</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:43</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:27</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/avs-benfica/8WC0YGB1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45263.5</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Leixoes</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:52</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>26/11/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/torreense-leixoes/KQ6bgImR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45263.625</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Tondela</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:47</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/penafiel-tondela/bBIkevJE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45263.6875</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Maritimo</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:48</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:48</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/santa-clara-maritimo/jeIeZdde/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45264.79166666666</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>3</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>27/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>27/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>27/11/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/feirense-mafra/nNB4XzR7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45268.89583333334</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Leiria</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:41</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:41</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>03/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:41</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leiria-torreense/KteM8cmE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45269.5</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/pacos-ferreira-penafiel/nyiwnzt1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45269.5</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>3</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:57</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:52</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:57</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-avs/hfgU6yIQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45269.625</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Tondela</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>09/12/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/tondela-santa-clara/bXgQ7H2K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45269.6875</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Leixoes</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>04/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:21</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>04/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:21</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>04/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:21</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leixoes-feirense/UFpd2eQs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45269.79166666666</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Benfica B</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:57</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-nacional/KlkopEAD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45270.5</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>04/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:32</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>04/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:31</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>04/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:31</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-academico-viseu/tbjsofe7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45270.625</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Os Belenenses</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Oliveirense</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/cf-os-belenenses-oliveirense/Cvz11Ful/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45270.6875</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Maritimo</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>4</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Vilaverdense</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:18</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:20</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:18</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/maritimo-vilaverdense-fc/YXnZnGQf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45276.5</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>16/12/2023 11:52</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>16/12/2023 11:52</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>16/12/2023 11:52</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/academico-viseu-torreense/plI7KfnQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45276.625</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Leiria</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>16/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/penafiel-leiria/4YbvFY9m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45276.6875</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>5</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Os Belenenses</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:25</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:25</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:25</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-cf-os-belenenses/tKRHcXvD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45276.79166666666</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>09/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/avs-pacos-ferreira/K4w9agA0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45277.5</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Vilaverdense</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Leixoes</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:48</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>17/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/vilaverdense-fc-leixoes/Qs0zGEfs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45277.54166666666</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>10/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/santa-clara-fc-porto/jVY40Zff/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45277.625</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Maritimo</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>2</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/feirense-maritimo/bexDbDP6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45277.6875</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Benfica B</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Tondela</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:06</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:33</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:06</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-tondela/hfVLdifJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45277.79166666666</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Oliveirense</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>3</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-mafra/6cJ3LzXJ/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.21</v>
+        <v>1.89</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>01/09/2023 13:29</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.38</v>
+        <v>3.38</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:23</t>
+          <t>02/09/2023 16:02</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.3</v>
+        <v>3.58</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>01/09/2023 13:29</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/09/2023 08:56</t>
+          <t>02/09/2023 16:02</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.27</v>
+        <v>4.24</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>01/09/2023 13:29</t>
+          <t>27/08/2023 12:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.23</v>
+        <v>2.28</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 16:23</t>
+          <t>02/09/2023 16:02</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leiria-avs/vZ3ajzFd/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/penafiel-academico-viseu/WSEPdxxT/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.89</v>
+        <v>2.21</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>01/09/2023 13:29</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>3.38</v>
+        <v>2.38</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:02</t>
+          <t>02/09/2023 16:23</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>01/09/2023 13:29</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:02</t>
+          <t>02/09/2023 08:56</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>4.24</v>
+        <v>3.27</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>27/08/2023 12:12</t>
+          <t>01/09/2023 13:29</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.28</v>
+        <v>3.23</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 16:02</t>
+          <t>02/09/2023 16:23</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/penafiel-academico-viseu/WSEPdxxT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leiria-avs/vZ3ajzFd/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.48</v>
+        <v>3.38</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:53</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.38</v>
+        <v>3.48</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:53</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,63 +10609,63 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J111" t="n">
-        <v>1.81</v>
+        <v>2.36</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>03/12/2023 15:12</t>
+          <t>02/12/2023 21:42</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>09/12/2023 11:58</t>
+          <t>09/12/2023 11:57</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>03/12/2023 15:12</t>
+          <t>02/12/2023 21:42</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>09/12/2023 11:58</t>
+          <t>09/12/2023 11:52</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>03/12/2023 15:12</t>
+          <t>02/12/2023 21:42</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>4.65</v>
+        <v>3.7</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>09/12/2023 11:58</t>
+          <t>09/12/2023 11:57</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/pacos-ferreira-penafiel/nyiwnzt1/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-avs/hfgU6yIQ/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>2.36</v>
+        <v>1.81</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>02/12/2023 21:42</t>
+          <t>03/12/2023 15:12</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>09/12/2023 11:57</t>
+          <t>09/12/2023 11:58</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>02/12/2023 21:42</t>
+          <t>03/12/2023 15:12</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>09/12/2023 11:52</t>
+          <t>09/12/2023 11:58</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>02/12/2023 21:42</t>
+          <t>03/12/2023 15:12</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.7</v>
+        <v>4.65</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>09/12/2023 11:57</t>
+          <t>09/12/2023 11:58</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-avs/hfgU6yIQ/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/pacos-ferreira-penafiel/nyiwnzt1/</t>
         </is>
       </c>
     </row>
@@ -12138,6 +12138,98 @@
       <c r="V127" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-mafra/6cJ3LzXJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45281.79166666666</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>3</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Vilaverdense</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>17/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/torreense-vilaverdense-fc/Cb2nDCv0/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V128"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12233,6 +12233,98 @@
         </is>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45282.82291666666</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Leiria</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>22/12/2023 19:35</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>22/12/2023 19:35</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>16/12/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>22/12/2023 19:40</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leiria-pacos-ferreira/8SdUPAu3/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.38</v>
+        <v>3.48</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:53</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.48</v>
+        <v>3.38</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:53</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
         </is>
       </c>
     </row>
@@ -12322,6 +12322,742 @@
       <c r="V129" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leiria-pacos-ferreira/8SdUPAu3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45282.90625</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Os Belenenses</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>22/12/2023 21:37</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>22/12/2023 21:37</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>22/12/2023 21:43</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/cf-os-belenenses-santa-clara/YDjeBj9C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45283.57291666666</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Maritimo</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:40</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:40</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:40</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/maritimo-penafiel/bebrEhPg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45290.5</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>3</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>30/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>30/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>30/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-nacional/nZLADtjt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45290.5</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Leixoes</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>2</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>30/12/2023 11:57</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>30/12/2023 11:33</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>30/12/2023 11:57</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leixoes-academico-viseu/fNiiCWg6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45290.625</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Benfica B</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:00</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:00</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>23/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>30/12/2023 15:00</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/pacos-ferreira-benfica/tdLEC05n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45290.625</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Tondela</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Oliveirense</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>30/12/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>30/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>23/12/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>30/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/tondela-oliveirense/ADUrIMsP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45290.79166666666</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Leiria</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>23/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:52</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>23/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>23/12/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>30/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/leiria-feirense/6u429UwP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45291.5</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:11</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>31/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:11</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>31/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:11</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>31/12/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-avs/Sl5bAAOI/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V137"/>
+  <dimension ref="A1:V143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Vilaverdense</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>13/08/2023 11:59</t>
+          <t>13/08/2023 11:52</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.33</v>
+        <v>3.88</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>13/08/2023 11:55</t>
+          <t>13/08/2023 11:52</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.79</v>
+        <v>4.53</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.16</v>
+        <v>4.8</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>13/08/2023 11:59</t>
+          <t>13/08/2023 11:52</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-tondela/MejJgCPJ/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/academico-viseu-vilaverdense-fc/Yeoap8n6/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,14 +949,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Vilaverdense</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 11:52</t>
+          <t>13/08/2023 11:59</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.88</v>
+        <v>3.33</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 11:52</t>
+          <t>13/08/2023 11:55</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.53</v>
+        <v>4.79</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>4.8</v>
+        <v>3.16</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 11:52</t>
+          <t>13/08/2023 11:59</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/academico-viseu-vilaverdense-fc/Yeoap8n6/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-tondela/MejJgCPJ/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Leiria</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.48</v>
+        <v>3.38</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:53</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>08/10/2023 11:59</t>
+          <t>08/10/2023 11:51</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Leiria</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.73</v>
+        <v>2.86</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.38</v>
+        <v>3.48</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:53</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>08/10/2023 11:51</t>
+          <t>08/10/2023 11:59</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-torreense/IL4w4E0g/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leiria/hbqtOZiP/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:48</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.57</v>
+        <v>3.73</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.78</v>
+        <v>3.55</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.87</v>
+        <v>3.8</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.41</v>
+        <v>4.21</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:58</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Leixoes</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
       <c r="J75" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:48</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.73</v>
+        <v>3.57</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.55</v>
+        <v>3.78</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.8</v>
+        <v>3.87</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.21</v>
+        <v>4.41</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
         </is>
       </c>
     </row>
@@ -12717,71 +12717,71 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>2.02</v>
+        <v>1.5</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>23/12/2023 15:12</t>
+          <t>23/12/2023 12:12</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>2.19</v>
+        <v>1.68</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>30/12/2023 15:00</t>
+          <t>30/12/2023 14:51</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.41</v>
+        <v>4.22</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>23/12/2023 15:12</t>
+          <t>23/12/2023 12:12</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.21</v>
+        <v>3.94</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>30/12/2023 15:00</t>
+          <t>30/12/2023 14:59</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>3.59</v>
+        <v>6.04</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>23/12/2023 15:12</t>
+          <t>23/12/2023 12:12</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>3.76</v>
+        <v>5.31</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>30/12/2023 15:00</t>
+          <t>30/12/2023 14:59</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/pacos-ferreira-benfica/tdLEC05n/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/tondela-oliveirense/ADUrIMsP/</t>
         </is>
       </c>
     </row>
@@ -12809,71 +12809,71 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J135" t="n">
-        <v>1.5</v>
+        <v>2.02</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>23/12/2023 12:12</t>
+          <t>23/12/2023 15:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.68</v>
+        <v>2.19</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>30/12/2023 14:51</t>
+          <t>30/12/2023 15:00</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>4.22</v>
+        <v>3.41</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>23/12/2023 12:12</t>
+          <t>23/12/2023 15:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.94</v>
+        <v>3.21</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>30/12/2023 14:59</t>
+          <t>30/12/2023 15:00</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>6.04</v>
+        <v>3.59</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>23/12/2023 12:12</t>
+          <t>23/12/2023 15:12</t>
         </is>
       </c>
       <c r="T135" t="n">
-        <v>5.31</v>
+        <v>3.76</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>30/12/2023 14:59</t>
+          <t>30/12/2023 15:00</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/tondela-oliveirense/ADUrIMsP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/pacos-ferreira-benfica/tdLEC05n/</t>
         </is>
       </c>
     </row>
@@ -13058,6 +13058,558 @@
       <c r="V137" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-avs/Sl5bAAOI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45297.5</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Oliveirense</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Maritimo</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>30/12/2024 15:12</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:33</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>30/12/2024 15:12</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:49</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>30/12/2024 15:12</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:49</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/oliveirense-maritimo/UFMkEDti/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45297.625</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Penafiel</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Vilaverdense</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>30/12/2024 15:12</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>06/01/2024 14:51</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>30/12/2024 15:12</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>06/01/2024 14:50</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>30/12/2024 15:12</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>06/01/2024 14:54</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/penafiel-vilaverdense-fc/MBGZ7xKH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45297.6875</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Benfica B</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>2</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Os Belenenses</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:13</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:06</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:13</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:27</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>30/12/2024 18:13</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:08</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-cf-os-belenenses/t0T7kU3j/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45297.6875</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Mafra</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>31/12/2024 12:12</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:21</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>31/12/2024 12:12</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:24</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>31/12/2024 12:12</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:24</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/santa-clara-mafra/KnKIBKKh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45297.79166666666</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Academico Viseu</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Leiria</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>30/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>06/01/2024 18:59</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>30/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>06/01/2024 18:55</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>30/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>06/01/2024 18:59</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/academico-viseu-leiria/86LgDXec/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45297.79166666666</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Tondela</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>30/12/2024 15:12</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:57</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>30/12/2024 15:12</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>06/01/2024 18:50</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>30/12/2024 15:12</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>06/01/2024 18:50</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-tondela/29U3jAlp/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-portugal-2_2023-2024.xlsx
+++ b/2023/portugal_liga-portugal-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V143"/>
+  <dimension ref="A1:V146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Vilaverdense</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>13/08/2023 11:52</t>
+          <t>13/08/2023 11:59</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.88</v>
+        <v>3.33</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>13/08/2023 11:52</t>
+          <t>13/08/2023 11:55</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.53</v>
+        <v>4.79</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.8</v>
+        <v>3.16</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>13/08/2023 11:52</t>
+          <t>13/08/2023 11:59</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/academico-viseu-vilaverdense-fc/Yeoap8n6/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-tondela/MejJgCPJ/</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -949,14 +949,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Vilaverdense</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>13/08/2023 11:59</t>
+          <t>13/08/2023 11:52</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.72</v>
+        <v>3.65</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.33</v>
+        <v>3.88</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>13/08/2023 11:55</t>
+          <t>13/08/2023 11:52</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.79</v>
+        <v>4.53</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.16</v>
+        <v>4.8</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>13/08/2023 11:59</t>
+          <t>13/08/2023 11:52</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-tondela/MejJgCPJ/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/academico-viseu-vilaverdense-fc/Yeoap8n6/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Maritimo</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>2</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Vilaverdense</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
       <c r="J39" t="n">
-        <v>1.75</v>
+        <v>2.76</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>12/09/2023 12:12</t>
+          <t>13/09/2023 21:12</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.82</v>
+        <v>2.49</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16/09/2023 11:53</t>
+          <t>16/09/2023 11:00</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.71</v>
+        <v>3.22</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>12/09/2023 12:12</t>
+          <t>13/09/2023 21:12</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.69</v>
+        <v>3.34</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16/09/2023 11:53</t>
+          <t>16/09/2023 10:30</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.89</v>
+        <v>2.58</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>12/09/2023 12:12</t>
+          <t>13/09/2023 21:12</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.66</v>
+        <v>3.01</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 11:53</t>
+          <t>16/09/2023 11:00</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/avs-vilaverdense-fc/rVCSkOuq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-maritimo/tORXnMP1/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Vilaverdense</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Maritimo</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
       <c r="J40" t="n">
-        <v>2.76</v>
+        <v>1.75</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>13/09/2023 21:12</t>
+          <t>12/09/2023 12:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.49</v>
+        <v>1.82</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16/09/2023 11:00</t>
+          <t>16/09/2023 11:53</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.22</v>
+        <v>3.71</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>13/09/2023 21:12</t>
+          <t>12/09/2023 12:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.34</v>
+        <v>3.69</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16/09/2023 10:30</t>
+          <t>16/09/2023 11:53</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.58</v>
+        <v>4.89</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>13/09/2023 21:12</t>
+          <t>12/09/2023 12:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.01</v>
+        <v>4.66</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>16/09/2023 11:00</t>
+          <t>16/09/2023 11:53</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-maritimo/tORXnMP1/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/avs-vilaverdense-fc/rVCSkOuq/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Leixoes</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
       <c r="J74" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:48</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.73</v>
+        <v>3.57</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.55</v>
+        <v>3.78</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.8</v>
+        <v>3.87</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.21</v>
+        <v>4.41</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:58</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:48</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.57</v>
+        <v>3.73</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.78</v>
+        <v>3.55</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.87</v>
+        <v>3.8</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.41</v>
+        <v>4.21</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>04/11/2023 11:58</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-feirense/jTL6QSDN/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/mafra-leixoes/YiBBPnTT/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Santa Clara</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.91</v>
+        <v>2.98</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.26</v>
+        <v>2.81</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:58</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.67</v>
+        <v>3.27</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.59</v>
+        <v>3.23</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:52</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.01</v>
+        <v>2.39</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>29/10/2023 16:42</t>
+          <t>01/11/2023 16:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>04/11/2023 18:53</t>
+          <t>04/11/2023 18:52</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-penafiel/xjmbUAEb/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-santa-clara/xQH2R8bH/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,63 +7573,63 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Santa Clara</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.98</v>
+        <v>1.91</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.81</v>
+        <v>2.26</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:58</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.27</v>
+        <v>3.67</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.23</v>
+        <v>3.59</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:52</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.39</v>
+        <v>4.01</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>01/11/2023 16:12</t>
+          <t>29/10/2023 16:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.72</v>
+        <v>3.2</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>04/11/2023 18:52</t>
+          <t>04/11/2023 18:53</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-santa-clara/xQH2R8bH/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/benfica-penafiel/xjmbUAEb/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,63 +10609,63 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>AVS</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>2.36</v>
+        <v>1.81</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>02/12/2023 21:42</t>
+          <t>03/12/2023 15:12</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>09/12/2023 11:57</t>
+          <t>09/12/2023 11:58</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.26</v>
+        <v>3.53</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>02/12/2023 21:42</t>
+          <t>03/12/2023 15:12</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>09/12/2023 11:52</t>
+          <t>09/12/2023 11:58</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>02/12/2023 21:42</t>
+          <t>03/12/2023 15:12</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.7</v>
+        <v>4.65</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>09/12/2023 11:57</t>
+          <t>09/12/2023 11:58</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-avs/hfgU6yIQ/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/pacos-ferreira-penafiel/nyiwnzt1/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>AVS</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J112" t="n">
-        <v>1.81</v>
+        <v>2.36</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>03/12/2023 15:12</t>
+          <t>02/12/2023 21:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>09/12/2023 11:58</t>
+          <t>09/12/2023 11:57</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.53</v>
+        <v>3.26</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>03/12/2023 15:12</t>
+          <t>02/12/2023 21:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>09/12/2023 11:58</t>
+          <t>09/12/2023 11:52</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>03/12/2023 15:12</t>
+          <t>02/12/2023 21:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.65</v>
+        <v>3.7</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>09/12/2023 11:58</t>
+          <t>09/12/2023 11:57</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/pacos-ferreira-penafiel/nyiwnzt1/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/fc-porto-avs/hfgU6yIQ/</t>
         </is>
       </c>
     </row>
@@ -12717,71 +12717,71 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Tondela</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>1.5</v>
+        <v>2.02</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>23/12/2023 12:12</t>
+          <t>23/12/2023 15:12</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.68</v>
+        <v>2.19</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>30/12/2023 14:51</t>
+          <t>30/12/2023 15:00</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>4.22</v>
+        <v>3.41</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>23/12/2023 12:12</t>
+          <t>23/12/2023 15:12</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.94</v>
+        <v>3.21</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>30/12/2023 14:59</t>
+          <t>30/12/2023 15:00</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>6.04</v>
+        <v>3.59</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>23/12/2023 12:12</t>
+          <t>23/12/2023 15:12</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>5.31</v>
+        <v>3.76</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>30/12/2023 14:59</t>
+          <t>30/12/2023 15:00</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/tondela-oliveirense/ADUrIMsP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/pacos-ferreira-benfica/tdLEC05n/</t>
         </is>
       </c>
     </row>
@@ -12809,71 +12809,71 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Tondela</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>2.02</v>
+        <v>1.5</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>23/12/2023 15:12</t>
+          <t>23/12/2023 12:12</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>2.19</v>
+        <v>1.68</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>30/12/2023 15:00</t>
+          <t>30/12/2023 14:51</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.41</v>
+        <v>4.22</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>23/12/2023 15:12</t>
+          <t>23/12/2023 12:12</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.21</v>
+        <v>3.94</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>30/12/2023 15:00</t>
+          <t>30/12/2023 14:59</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.59</v>
+        <v>6.04</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>23/12/2023 15:12</t>
+          <t>23/12/2023 12:12</t>
         </is>
       </c>
       <c r="T135" t="n">
-        <v>3.76</v>
+        <v>5.31</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>30/12/2023 15:00</t>
+          <t>30/12/2023 14:59</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/pacos-ferreira-benfica/tdLEC05n/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/tondela-oliveirense/ADUrIMsP/</t>
         </is>
       </c>
     </row>
@@ -13610,6 +13610,282 @@
       <c r="V143" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/nacional-tondela/29U3jAlp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45298.5</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>AVS</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Leixoes</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>3</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>31/12/2024 12:12</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>07/01/2024 11:42</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>31/12/2024 12:12</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>07/01/2024 11:42</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>31/12/2024 12:12</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>07/01/2024 11:42</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/avs-leixoes/GEDR9bk5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45298.625</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Pacos Ferreira</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>3</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>FC Porto B</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>31/12/2024 15:12</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:52</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>31/12/2024 15:12</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:51</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>31/12/2024 15:12</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>07/01/2024 14:52</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/pacos-ferreira-fc-porto/xOENAvza/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>liga-portugal-2</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45298.6875</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>3</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>31/12/2024 15:12</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>07/01/2024 16:27</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>31/12/2024 15:12</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>07/01/2024 16:27</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>31/12/2024 15:12</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>07/01/2024 16:27</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-portugal-2/feirense-torreense/AyDV8I4B/</t>
         </is>
       </c>
     </row>
